--- a/biology/Zoologie/Dryophytes_cinereus/Dryophytes_cinereus.xlsx
+++ b/biology/Zoologie/Dryophytes_cinereus/Dryophytes_cinereus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dryophytes cinereus est une espèce d'amphibien de la famille des Hylidae[1]. Cette grenouille arboricole est assez commune dans le sud des États-Unis.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dryophytes cinereus est une espèce d'amphibien de la famille des Hylidae. Cette grenouille arboricole est assez commune dans le sud des États-Unis.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce est endémique des États-Unis. Elle se rencontre dans les États de l'Est :
 dans l'est du Texas ;
@@ -559,9 +573,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une étude publiée dans Current Biology sous la direction de Norman Lee montre que les poumons des femelles de cette rainette verte entrent en résonance dans une gamme de fréquences particulières. Les vibrations « indirectes » qu’ils transmettent alors vers l’oreille dite moyenne étouffent celles directement perçues par la face externe du tympan, ne laissant passer que les fréquences propres au chant de leurs mâles : ce « casque anti-bruit » leur permettent de le distinguer au milieu du bruit produit par des dizaines d'autres espèces. Cinq espèces cousines disposeraient également d'une telle faculté[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude publiée dans Current Biology sous la direction de Norman Lee montre que les poumons des femelles de cette rainette verte entrent en résonance dans une gamme de fréquences particulières. Les vibrations « indirectes » qu’ils transmettent alors vers l’oreille dite moyenne étouffent celles directement perçues par la face externe du tympan, ne laissant passer que les fréquences propres au chant de leurs mâles : ce « casque anti-bruit » leur permettent de le distinguer au milieu du bruit produit par des dizaines d'autres espèces. Cinq espèces cousines disposeraient également d'une telle faculté,.
 </t>
         </is>
       </c>
@@ -590,7 +606,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Schneider, 1799 : Historiae amphibiorum naturalis et literariae fasciculus primus, vol. 1 (texte intégral).</t>
         </is>
